--- a/results/table_summary.xlsx
+++ b/results/table_summary.xlsx
@@ -86,7 +86,7 @@
     <t xml:space="preserve">10211</t>
   </si>
   <si>
-    <t xml:space="preserve">Gynaecological surgery</t>
+    <t xml:space="preserve">Gynecological surgery</t>
   </si>
   <si>
     <t xml:space="preserve">Complete removal of the ovary or adnexa without pathological findings</t>
